--- a/Checklist Colorida.xlsx
+++ b/Checklist Colorida.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Josphze\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Josphze\Desktop\SD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2085F0DD-172F-47E1-A90F-916C4F91723C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D6932E-FEA5-46D7-9BAD-0EC85170E911}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="70">
   <si>
     <t>Requisitos Funcionais</t>
   </si>
@@ -234,20 +234,29 @@
     <t>Não Implementado</t>
   </si>
   <si>
-    <t>Add callback to methods</t>
-  </si>
-  <si>
-    <t>Falta implementar resultados adequados</t>
-  </si>
-  <si>
-    <t>Sadge não quero</t>
+    <t>Como funciona o RMI Server secundario</t>
+  </si>
+  <si>
+    <t>Chamar o Save() sempre que houver uma alteracao</t>
+  </si>
+  <si>
+    <t>Estamos a ligar / desligar mesas de voto?</t>
+  </si>
+  <si>
+    <t>Verificar se não estamos a alterar eleicoes depois de acabarem</t>
+  </si>
+  <si>
+    <t>TODO do ze:</t>
+  </si>
+  <si>
+    <t>Yay callbacks</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -302,6 +311,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -501,7 +518,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -550,6 +567,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="155">
@@ -1052,13 +1072,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F90"/>
+  <dimension ref="A1:I90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="F19" sqref="F19"/>
+      <selection pane="bottomRight" activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.125" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1070,13 +1090,13 @@
     <col min="5" max="16384" width="27.125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="2.1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:6" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="2.1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:8" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
@@ -1084,7 +1104,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
         <v>3</v>
       </c>
@@ -1092,7 +1112,7 @@
         <v>2017987654</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <f>A6+A25+A33+A40</f>
         <v>100</v>
@@ -1105,7 +1125,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <f>SUM(A7:A24)</f>
         <v>44</v>
@@ -1118,7 +1138,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="15">
         <v>1</v>
       </c>
@@ -1130,7 +1150,7 @@
       </c>
       <c r="F7"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="15">
         <v>3</v>
       </c>
@@ -1141,8 +1161,11 @@
         <v>3</v>
       </c>
       <c r="F8"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H8" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
         <v>3</v>
       </c>
@@ -1156,7 +1179,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="15">
         <v>3</v>
       </c>
@@ -1169,8 +1192,11 @@
       <c r="F10" s="12" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H10" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="15">
         <v>3</v>
       </c>
@@ -1183,8 +1209,11 @@
       <c r="F11" s="15" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H11" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
         <v>3</v>
       </c>
@@ -1194,8 +1223,11 @@
       <c r="C12" s="12">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H12" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
         <v>3</v>
       </c>
@@ -1205,8 +1237,11 @@
       <c r="C13" s="12">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H13" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
         <v>3</v>
       </c>
@@ -1217,7 +1252,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
         <v>3</v>
       </c>
@@ -1229,7 +1264,7 @@
       </c>
       <c r="D15" s="17"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="15">
         <v>3</v>
       </c>
@@ -1240,19 +1275,22 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="12">
-        <v>3</v>
-      </c>
-      <c r="B17" s="13" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="10">
+        <v>3</v>
+      </c>
+      <c r="B17" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="12">
-        <v>3</v>
-      </c>
-      <c r="D17" s="16"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C17" s="10">
+        <v>3</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I17" s="19"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>3</v>
       </c>
@@ -1262,25 +1300,23 @@
       <c r="C18" s="10">
         <v>3</v>
       </c>
-      <c r="D18" s="16" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="10">
+      <c r="D18" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="12">
         <v>7</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="12">
         <v>7</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D19" s="16"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="15">
         <v>3</v>
       </c>
@@ -1291,7 +1327,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="15">
         <v>0</v>
       </c>
@@ -1302,21 +1338,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="10">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="12">
         <v>0</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="12">
         <v>0</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="12">
         <v>0</v>
       </c>
@@ -1330,7 +1363,7 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="12">
         <v>0</v>
       </c>
@@ -1341,7 +1374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <f>SUM(A26:A32)</f>
         <v>24</v>
@@ -1354,7 +1387,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="10">
         <v>4</v>
       </c>
@@ -1365,7 +1398,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="12">
         <v>4</v>
       </c>
@@ -1376,7 +1409,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="12">
         <v>4</v>
       </c>
@@ -1387,7 +1420,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="10">
         <v>4</v>
       </c>
@@ -1398,7 +1431,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="15">
         <v>4</v>
       </c>
@@ -1409,7 +1442,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="12">
         <v>4</v>
       </c>
@@ -1420,7 +1453,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="10">
         <v>0</v>
       </c>
@@ -1478,13 +1511,13 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="10">
-        <v>4</v>
-      </c>
-      <c r="B37" s="11" t="s">
+      <c r="A37" s="12">
+        <v>4</v>
+      </c>
+      <c r="B37" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="10">
+      <c r="C37" s="12">
         <v>4</v>
       </c>
     </row>
@@ -1759,7 +1792,7 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="79" fitToHeight="2" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" scale="79" fitToHeight="2" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Checklist Colorida.xlsx
+++ b/Checklist Colorida.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Josphze\Desktop\SD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D6932E-FEA5-46D7-9BAD-0EC85170E911}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A16588-0828-4847-8160-B30E611C2568}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>Requisitos Funcionais</t>
   </si>
@@ -249,7 +249,7 @@
     <t>TODO do ze:</t>
   </si>
   <si>
-    <t>Yay callbacks</t>
+    <t>Podemos não estar a chamar o callback sempre q necessario</t>
   </si>
 </sst>
 </file>
@@ -1075,10 +1075,10 @@
   <dimension ref="A1:I90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="J16" sqref="J16"/>
+      <selection pane="bottomRight" activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.125" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1178,6 +1178,9 @@
       <c r="F9" s="14" t="s">
         <v>63</v>
       </c>
+      <c r="H9" s="5" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="15">
@@ -1276,32 +1279,26 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="10">
-        <v>3</v>
-      </c>
-      <c r="B17" s="11" t="s">
+      <c r="A17" s="12">
+        <v>3</v>
+      </c>
+      <c r="B17" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="10">
-        <v>3</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>69</v>
+      <c r="C17" s="12">
+        <v>3</v>
       </c>
       <c r="I17" s="19"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="10">
-        <v>3</v>
-      </c>
-      <c r="B18" s="11" t="s">
+      <c r="A18" s="12">
+        <v>3</v>
+      </c>
+      <c r="B18" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="10">
-        <v>3</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>69</v>
+      <c r="C18" s="12">
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">

--- a/Checklist Colorida.xlsx
+++ b/Checklist Colorida.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Josphze\Desktop\SD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A16588-0828-4847-8160-B30E611C2568}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{098C09C0-621B-4527-9829-1FF87DC5B17A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>Requisitos Funcionais</t>
   </si>
@@ -234,13 +234,7 @@
     <t>Não Implementado</t>
   </si>
   <si>
-    <t>Como funciona o RMI Server secundario</t>
-  </si>
-  <si>
     <t>Chamar o Save() sempre que houver uma alteracao</t>
-  </si>
-  <si>
-    <t>Estamos a ligar / desligar mesas de voto?</t>
   </si>
   <si>
     <t>Verificar se não estamos a alterar eleicoes depois de acabarem</t>
@@ -1075,10 +1069,10 @@
   <dimension ref="A1:I90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="J13" sqref="J13"/>
+      <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.125" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1090,13 +1084,13 @@
     <col min="5" max="16384" width="27.125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="2.1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:8" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="2.1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
@@ -1104,7 +1098,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
         <v>3</v>
       </c>
@@ -1112,7 +1106,7 @@
         <v>2017987654</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <f>A6+A25+A33+A40</f>
         <v>100</v>
@@ -1125,7 +1119,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <f>SUM(A7:A24)</f>
         <v>44</v>
@@ -1138,7 +1132,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="15">
         <v>1</v>
       </c>
@@ -1148,9 +1142,8 @@
       <c r="C7" s="15">
         <v>1</v>
       </c>
-      <c r="F7"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="15">
         <v>3</v>
       </c>
@@ -1160,12 +1153,9 @@
       <c r="C8" s="15">
         <v>3</v>
       </c>
-      <c r="F8"/>
-      <c r="H8" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E8"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
         <v>3</v>
       </c>
@@ -1175,14 +1165,12 @@
       <c r="C9" s="12">
         <v>3</v>
       </c>
-      <c r="F9" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E9"/>
+      <c r="G9" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="15">
         <v>3</v>
       </c>
@@ -1192,14 +1180,14 @@
       <c r="C10" s="15">
         <v>3</v>
       </c>
-      <c r="F10" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E10" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="15">
         <v>3</v>
       </c>
@@ -1209,14 +1197,14 @@
       <c r="C11" s="15">
         <v>3</v>
       </c>
-      <c r="F11" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E11" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
         <v>3</v>
       </c>
@@ -1226,11 +1214,14 @@
       <c r="C12" s="12">
         <v>3</v>
       </c>
-      <c r="H12" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E12" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
         <v>3</v>
       </c>
@@ -1240,11 +1231,8 @@
       <c r="C13" s="12">
         <v>3</v>
       </c>
-      <c r="H13" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
         <v>3</v>
       </c>
@@ -1255,7 +1243,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
         <v>3</v>
       </c>
@@ -1267,7 +1255,7 @@
       </c>
       <c r="D15" s="17"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="15">
         <v>3</v>
       </c>

--- a/Checklist Colorida.xlsx
+++ b/Checklist Colorida.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Josphze\Desktop\SD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{098C09C0-621B-4527-9829-1FF87DC5B17A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6334CF2-E889-4391-90A4-AC61544AAAAC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -240,10 +240,10 @@
     <t>Verificar se não estamos a alterar eleicoes depois de acabarem</t>
   </si>
   <si>
-    <t>TODO do ze:</t>
-  </si>
-  <si>
     <t>Podemos não estar a chamar o callback sempre q necessario</t>
+  </si>
+  <si>
+    <t>Deviamos checkar:</t>
   </si>
 </sst>
 </file>
@@ -512,7 +512,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -557,9 +557,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1069,10 +1066,10 @@
   <dimension ref="A1:I90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
+      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.125" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1133,24 +1130,24 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="15">
+      <c r="A7" s="12">
         <v>1</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="15">
-        <v>3</v>
-      </c>
-      <c r="B8" s="18" t="s">
+      <c r="A8" s="12">
+        <v>3</v>
+      </c>
+      <c r="B8" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="12">
         <v>3</v>
       </c>
       <c r="E8"/>
@@ -1167,34 +1164,34 @@
       </c>
       <c r="E9"/>
       <c r="G9" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="15">
-        <v>3</v>
-      </c>
-      <c r="B10" s="18" t="s">
+      <c r="A10" s="12">
+        <v>3</v>
+      </c>
+      <c r="B10" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="12">
         <v>3</v>
       </c>
       <c r="E10" s="14" t="s">
         <v>63</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="15">
-        <v>3</v>
-      </c>
-      <c r="B11" s="18" t="s">
+      <c r="A11" s="12">
+        <v>3</v>
+      </c>
+      <c r="B11" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="12">
         <v>3</v>
       </c>
       <c r="E11" s="12" t="s">
@@ -1256,13 +1253,13 @@
       <c r="D15" s="17"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="15">
-        <v>3</v>
-      </c>
-      <c r="B16" s="18" t="s">
+      <c r="A16" s="12">
+        <v>3</v>
+      </c>
+      <c r="B16" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="12">
         <v>3</v>
       </c>
     </row>
@@ -1276,7 +1273,7 @@
       <c r="C17" s="12">
         <v>3</v>
       </c>
-      <c r="I17" s="19"/>
+      <c r="I17" s="18"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="12">
@@ -1302,24 +1299,24 @@
       <c r="D19" s="16"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="15">
-        <v>3</v>
-      </c>
-      <c r="B20" s="18" t="s">
+      <c r="A20" s="12">
+        <v>3</v>
+      </c>
+      <c r="B20" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="15">
+      <c r="C20" s="12">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="15">
+      <c r="A21" s="12">
         <v>0</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="15">
+      <c r="C21" s="12">
         <v>0</v>
       </c>
     </row>
@@ -1373,13 +1370,13 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="10">
-        <v>4</v>
-      </c>
-      <c r="B26" s="11" t="s">
+      <c r="A26" s="12">
+        <v>4</v>
+      </c>
+      <c r="B26" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C26" s="12">
         <v>4</v>
       </c>
     </row>
@@ -1406,24 +1403,24 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="10">
-        <v>4</v>
-      </c>
-      <c r="B29" s="11" t="s">
+      <c r="A29" s="12">
+        <v>4</v>
+      </c>
+      <c r="B29" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="10">
+      <c r="C29" s="12">
         <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="15">
-        <v>4</v>
-      </c>
-      <c r="B30" s="18" t="s">
+      <c r="A30" s="12">
+        <v>4</v>
+      </c>
+      <c r="B30" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="15">
+      <c r="C30" s="12">
         <v>4</v>
       </c>
     </row>
@@ -1439,13 +1436,13 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="10">
+      <c r="A32" s="12">
         <v>0</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C32" s="10">
+      <c r="C32" s="12">
         <v>0</v>
       </c>
     </row>
@@ -1463,35 +1460,35 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="15">
-        <v>4</v>
-      </c>
-      <c r="B34" s="18" t="s">
+      <c r="A34" s="12">
+        <v>4</v>
+      </c>
+      <c r="B34" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C34" s="15">
+      <c r="C34" s="12">
         <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="15">
-        <v>4</v>
-      </c>
-      <c r="B35" s="18" t="s">
+      <c r="A35" s="12">
+        <v>4</v>
+      </c>
+      <c r="B35" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C35" s="15">
+      <c r="C35" s="12">
         <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="15">
-        <v>4</v>
-      </c>
-      <c r="B36" s="18" t="s">
+      <c r="A36" s="12">
+        <v>4</v>
+      </c>
+      <c r="B36" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C36" s="15">
+      <c r="C36" s="12">
         <v>4</v>
       </c>
     </row>
@@ -1520,13 +1517,13 @@
       <c r="E38"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="15">
-        <v>4</v>
-      </c>
-      <c r="B39" s="18" t="s">
+      <c r="A39" s="12">
+        <v>4</v>
+      </c>
+      <c r="B39" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C39" s="15">
+      <c r="C39" s="12">
         <v>4</v>
       </c>
     </row>
@@ -1566,13 +1563,13 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="10">
+      <c r="A43" s="12">
         <v>2</v>
       </c>
-      <c r="B43" s="11" t="s">
+      <c r="B43" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C43" s="10">
+      <c r="C43" s="12">
         <v>2</v>
       </c>
     </row>
